--- a/medicine/Sexualité et sexologie/Eaux_profondes_(film,_2022)/Eaux_profondes_(film,_2022).xlsx
+++ b/medicine/Sexualité et sexologie/Eaux_profondes_(film,_2022)/Eaux_profondes_(film,_2022).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eaux profondes (Deep Water) est un thriller érotique américain réalisé par Adrian Lyne sorti en 2022. Il s'agit d'une adaptation cinématographique du roman du même nom de Patricia Highsmith.
 Ce film marque le retour d'Adrian Lyne à la réalisation d'un long métrage, après Infidèle sorti en 2002.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vic Van Allen et sa magnifique femme Melinda sont un couple aisé de la Nouvelle-Orléans, parents d’une petite fille de 6 ans, Trixie.
 Mais derrière les apparences leur mariage s'écroule sous le poids de la rancœur, de la jalousie et du doute.
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Deep Water
@@ -571,7 +587,7 @@
 Dates de sortie :
 États-Unis : 18 mars 2022 (en vidéo à la demande sur Hulu)
 France : 18 mars 2022 (en vidéo à la demande sur Prime Video)
-Classification[1] :
+Classification :
 États-Unis : R (interdit aux moins de 17 ans sans être accompagné)
 France : 18+ (déconseillé aux moins de 18 ans[réf. nécessaire])</t>
         </is>
@@ -601,7 +617,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ben Affleck (VF : Jean-Pierre Michaël) : Victor Van Allen
 Ana de Armas (VF : Julie Cavanna) : Melinda Van Allen
@@ -650,10 +668,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le projet est évoqué dès 2013 : Adrian Lyne doit réaliser le film, financé par Fox 2000 Pictures. Finalement, Fox 2000 revend le film à New Regency Pictures en 2018. En août 2019, le film fait à nouveau parler de lui lorsque Ben Affleck et Ana de Armas donnent leur accord pour tenir les rôles principaux[2] alors que Walt Disney Studios Motion Pictures distribuera le film via 20th Century Studios[3]. En octobre 2019, Tracy Letts et Rachel Blanchard rejoignent la distribution[4].
-Le tournage débute à La Nouvelle-Orléans le 4 novembre 2019, alors que plusieurs actrices et acteurs rejoignent la production : Dash Mihok, Lil Rel Howery, Jacob Elordi, Kristen Connolly, Jade Fernandez ou encore Finn Wittrock[5],[6],[7]. En décembre 2019, Michael Braun est lui aussi engagé[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le projet est évoqué dès 2013 : Adrian Lyne doit réaliser le film, financé par Fox 2000 Pictures. Finalement, Fox 2000 revend le film à New Regency Pictures en 2018. En août 2019, le film fait à nouveau parler de lui lorsque Ben Affleck et Ana de Armas donnent leur accord pour tenir les rôles principaux alors que Walt Disney Studios Motion Pictures distribuera le film via 20th Century Studios. En octobre 2019, Tracy Letts et Rachel Blanchard rejoignent la distribution.
+Le tournage débute à La Nouvelle-Orléans le 4 novembre 2019, alors que plusieurs actrices et acteurs rejoignent la production : Dash Mihok, Lil Rel Howery, Jacob Elordi, Kristen Connolly, Jade Fernandez ou encore Finn Wittrock. En décembre 2019, Michael Braun est lui aussi engagé.
 </t>
         </is>
       </c>
@@ -684,10 +704,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dates de sortie
-La sortie américaine est initialement fixée au 13 novembre 2020 avant d'être décalée au 13 août 2021 et 14 janvier 2022 en raison de la pandémie de Covid-19 et de la fermeture des cinémas[3],[9]
+          <t>Dates de sortie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sortie américaine est initialement fixée au 13 novembre 2020 avant d'être décalée au 13 août 2021 et 14 janvier 2022 en raison de la pandémie de Covid-19 et de la fermeture des cinémas,
 En décembre 2021, il est révélé que le film ne sortira finalement pas en salles mais directement en streaming sur Hulu pour la sortie américaine et sur Prime Video dans le reste du monde.
-Critique</t>
+</t>
         </is>
       </c>
     </row>
